--- a/Results/CNN_Results.xlsx
+++ b/Results/CNN_Results.xlsx
@@ -1,51 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="25">
   <si>
-    <t>Project - Pulmonary Nodule Detection &amp; Lung Cancer Prediction - Convolutional Neural Network Models - Results</t>
+    <t xml:space="preserve">Project - Pulmonary Nodule Detection &amp; Lung Cancer Prediction - Convolutional Neural Network Models - Results</t>
   </si>
   <si>
-    <t>Model</t>
+    <t xml:space="preserve">Model</t>
   </si>
   <si>
-    <t>Pos_neg_ratio</t>
+    <t xml:space="preserve">Pos_neg_ratio</t>
   </si>
   <si>
-    <t>Train_Test_ratio</t>
+    <t xml:space="preserve">Train_Test_ratio</t>
   </si>
   <si>
-    <t>Train examples</t>
+    <t xml:space="preserve">Train examples</t>
   </si>
   <si>
-    <t>Test examples</t>
+    <t xml:space="preserve">Test examples</t>
   </si>
   <si>
     <t xml:space="preserve"> Epochs</t>
   </si>
   <si>
-    <t>Learning Rate</t>
+    <t xml:space="preserve">Learning Rate</t>
   </si>
   <si>
-    <t>Batch size</t>
+    <t xml:space="preserve">Batch size</t>
   </si>
   <si>
-    <t>Over Sampling</t>
+    <t xml:space="preserve">Over Sampling</t>
   </si>
   <si>
-    <t>Train acc</t>
+    <t xml:space="preserve">Train acc</t>
   </si>
   <si>
     <t xml:space="preserve"> Test acc</t>
@@ -57,7 +66,7 @@
     <t xml:space="preserve">   FPR</t>
   </si>
   <si>
-    <t>cnn_model4</t>
+    <t xml:space="preserve">cnn_model4</t>
   </si>
   <si>
     <t xml:space="preserve"> 80:20</t>
@@ -75,16 +84,16 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>no</t>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve"> 50:50</t>
   </si>
   <si>
-    <t>OverSampled Data</t>
+    <t xml:space="preserve">OverSampled Data</t>
   </si>
   <si>
-    <t>yes</t>
+    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve"> yes</t>
@@ -93,51 +102,92 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="DD/MM/YY\ HH:MM"/>
-    <numFmt numFmtId="165" formatCode="HH:MM"/>
-    <numFmt numFmtId="166" formatCode="[H]:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY\ HH:MM"/>
+    <numFmt numFmtId="166" formatCode="HH:MM"/>
+    <numFmt numFmtId="167" formatCode="[H]:MM:SS"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="15.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="15"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -145,119 +195,236 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0504D"/>
-        <bgColor rgb="FFC0504D"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
-    <border/>
-    <border>
-      <bottom style="thick">
-        <color rgb="FF4F81BD"/>
-      </bottom>
-    </border>
-    <border>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <bottom/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFC0504D"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF1F497D"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Z132"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D108" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J115" activeCellId="0" sqref="J115"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.43"/>
-    <col customWidth="1" min="2" max="2" width="15.43"/>
-    <col customWidth="1" min="3" max="3" width="16.86"/>
-    <col customWidth="1" min="4" max="4" width="15.43"/>
-    <col customWidth="1" min="5" max="5" width="17.14"/>
-    <col customWidth="1" min="6" max="6" width="8.57"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="11.14"/>
-    <col customWidth="1" min="9" max="9" width="14.71"/>
-    <col customWidth="1" min="10" max="10" width="9.57"/>
-    <col customWidth="1" min="11" max="11" width="10.0"/>
-    <col customWidth="1" min="12" max="13" width="8.57"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="14.5668016194332"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5">
+    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -287,7 +454,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -328,8 +495,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -338,62 +505,62 @@
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>1359.0</v>
-      </c>
-      <c r="E4">
-        <v>339.0</v>
-      </c>
-      <c r="F4">
-        <v>1000.0</v>
-      </c>
-      <c r="G4">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H4">
-        <v>32.0</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="D4" s="0" t="n">
+        <v>1359</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>339</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="0" t="n">
         <v>90.21</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="0" t="n">
         <v>82.3</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="0" t="n">
         <v>94.83</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="0" t="n">
         <v>67.65</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
-      <c r="F5">
-        <v>1800.0</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="F5" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>97.93</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="5" t="n">
         <v>85.84</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="5" t="n">
         <v>95.57</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="5" t="n">
         <v>52.94</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -402,76 +569,76 @@
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7">
-        <v>1186.0</v>
-      </c>
-      <c r="E7">
-        <v>512.0</v>
-      </c>
-      <c r="F7">
-        <v>900.0</v>
-      </c>
-      <c r="G7">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H7">
-        <v>32.0</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="D7" s="0" t="n">
+        <v>1186</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="0" t="n">
         <v>88.19</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="0" t="n">
         <v>81.25</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="0" t="n">
         <v>87.04</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="0" t="n">
         <v>41.75</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
-      <c r="F8">
-        <v>1800.0</v>
-      </c>
-      <c r="J8">
+      <c r="F8" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>98.73</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="0" t="n">
         <v>81.44</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="0" t="n">
         <v>92.67</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="0" t="n">
         <v>63.11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
-      <c r="F9">
-        <v>2400.0</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="F9" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>99.74</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="5" t="n">
         <v>83.98</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="5" t="n">
         <v>94.62</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="5" t="n">
         <v>58.25</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="J10" s="5"/>
@@ -479,8 +646,8 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -489,78 +656,78 @@
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
-        <v>1019.0</v>
-      </c>
-      <c r="E11">
-        <v>679.0</v>
-      </c>
-      <c r="F11">
-        <v>1000.0</v>
-      </c>
-      <c r="G11">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H11">
-        <v>32.0</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="D11" s="0" t="n">
+        <v>1019</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>679</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="0" t="n">
         <v>95.68</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="0" t="n">
         <v>81.59</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="0" t="n">
         <v>93.74</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="0" t="n">
         <v>66.91</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="F12">
-        <v>2000.0</v>
-      </c>
-      <c r="J12">
+      <c r="F12" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J12" s="0" t="n">
         <v>99.7</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="0" t="n">
         <v>82.03</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="0" t="n">
         <v>92.82</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="0" t="n">
         <v>61.03</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3"/>
       <c r="C13" s="6"/>
-      <c r="F13">
-        <v>2200.0</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="F13" s="0" t="n">
+        <v>2200</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>99.9</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="5" t="n">
         <v>82.76</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="5" t="n">
         <v>94.48</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="5" t="n">
         <v>63.97</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -588,275 +755,275 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D15">
-        <v>1551.0</v>
-      </c>
-      <c r="E15">
-        <v>389.0</v>
-      </c>
-      <c r="F15">
-        <v>2000.0</v>
-      </c>
-      <c r="G15">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H15">
-        <v>32.0</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="D15" s="0" t="n">
+        <v>1551</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>389</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="10">
-        <v>96.0</v>
-      </c>
-      <c r="K15" s="10">
+      <c r="J15" s="10" t="n">
+        <v>96</v>
+      </c>
+      <c r="K15" s="10" t="n">
         <v>78.15</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="10" t="n">
         <v>81.99</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="10" t="n">
         <v>30.7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3"/>
-      <c r="F16">
-        <v>2800.0</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="F16" s="0" t="n">
+        <v>2800</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>99.61</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="5" t="n">
         <v>79.94</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="5" t="n">
         <v>89.34</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="5" t="n">
         <v>41.88</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="3"/>
-      <c r="F17">
-        <v>3800.0</v>
-      </c>
-      <c r="J17" s="10">
+      <c r="F17" s="0" t="n">
+        <v>3800</v>
+      </c>
+      <c r="J17" s="10" t="n">
         <v>99.93</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="10" t="n">
         <v>79.69</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="10" t="n">
         <v>91.54</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="10" t="n">
         <v>47.86</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="3"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D19">
-        <v>1356.0</v>
-      </c>
-      <c r="E19">
-        <v>584.0</v>
-      </c>
-      <c r="F19">
-        <v>1000.0</v>
-      </c>
-      <c r="G19">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H19">
-        <v>32.0</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="D19" s="0" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>584</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="10" t="n">
         <v>88.2</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="10" t="n">
         <v>78.94</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="10" t="n">
         <v>94.62</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="10" t="n">
         <v>57.71</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="3"/>
-      <c r="F20">
-        <v>1500.0</v>
-      </c>
-      <c r="J20" s="10">
+      <c r="F20" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="J20" s="10" t="n">
         <v>94.91</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="10" t="n">
         <v>83.39</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="10" t="n">
         <v>94.13</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="10" t="n">
         <v>41.71</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="3"/>
-      <c r="F21">
-        <v>2700.0</v>
-      </c>
-      <c r="J21" s="5">
+      <c r="F21" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>99.85</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="5" t="n">
         <v>83.56</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="5" t="n">
         <v>89.24</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="5" t="n">
         <v>29.71</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="3"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D23">
-        <v>1165.0</v>
-      </c>
-      <c r="E23">
-        <v>775.0</v>
-      </c>
-      <c r="F23">
-        <v>1000.0</v>
-      </c>
-      <c r="G23">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H23">
-        <v>32.0</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="D23" s="0" t="n">
+        <v>1165</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>775</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I23" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="10" t="n">
         <v>89.27</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="10" t="n">
         <v>78.83</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="10" t="n">
         <v>91.33</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="10" t="n">
         <v>50.21</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F24">
-        <v>1900.0</v>
-      </c>
-      <c r="J24" s="10">
+      <c r="F24" s="0" t="n">
+        <v>1900</v>
+      </c>
+      <c r="J24" s="10" t="n">
         <v>98.79</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="10" t="n">
         <v>80.12</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="10" t="n">
         <v>92.07</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="10" t="n">
         <v>47.64</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="3"/>
-      <c r="F25">
-        <v>2200.0</v>
-      </c>
-      <c r="J25" s="5">
+      <c r="F25" s="0" t="n">
+        <v>2200</v>
+      </c>
+      <c r="J25" s="5" t="n">
         <v>99.57</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="5" t="n">
         <v>80.77</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="5" t="n">
         <v>88.93</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="5" t="n">
         <v>38.2</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="3"/>
-      <c r="F26">
-        <v>2300.0</v>
-      </c>
-      <c r="J26" s="10">
+      <c r="F26" s="0" t="n">
+        <v>2300</v>
+      </c>
+      <c r="J26" s="10" t="n">
         <v>99.39</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="10" t="n">
         <v>81.29</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="10" t="n">
         <v>92.8</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="10" t="n">
         <v>45.49</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="7"/>
@@ -884,283 +1051,283 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D28">
-        <v>1810.0</v>
-      </c>
-      <c r="E28">
-        <v>454.0</v>
-      </c>
-      <c r="F28">
-        <v>900.0</v>
-      </c>
-      <c r="G28">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H28">
-        <v>32.0</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="D28" s="0" t="n">
+        <v>1810</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>454</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I28" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="10" t="n">
         <v>81.82</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="10" t="n">
         <v>77.53</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="10" t="n">
         <v>81.62</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="10" t="n">
         <v>28.57</v>
       </c>
     </row>
-    <row r="29">
-      <c r="F29">
-        <v>1900.0</v>
-      </c>
-      <c r="J29" s="10">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="0" t="n">
+        <v>1900</v>
+      </c>
+      <c r="J29" s="10" t="n">
         <v>92.98</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="10" t="n">
         <v>81.49</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="10" t="n">
         <v>90.81</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="10" t="n">
         <v>32.42</v>
       </c>
     </row>
-    <row r="30">
-      <c r="F30">
-        <v>2700.0</v>
-      </c>
-      <c r="J30" s="5">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="J30" s="5" t="n">
         <v>99.11</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="5" t="n">
         <v>83.48</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="5" t="n">
         <v>89.34</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="5" t="n">
         <v>25.27</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D32">
-        <v>1583.0</v>
-      </c>
-      <c r="E32">
-        <v>681.0</v>
-      </c>
-      <c r="F32">
-        <v>1000.0</v>
-      </c>
-      <c r="G32">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H32">
-        <v>32.0</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="D32" s="0" t="n">
+        <v>1583</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>681</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I32" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="0" t="n">
         <v>79.09</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="0" t="n">
         <v>76.06</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="0" t="n">
         <v>91.69</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="0" t="n">
         <v>47.43</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33">
-        <v>1600.0</v>
-      </c>
-      <c r="J33">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="0" t="n">
+        <v>1600</v>
+      </c>
+      <c r="J33" s="0" t="n">
         <v>90.14</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="0" t="n">
         <v>79.73</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="0" t="n">
         <v>87.04</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="0" t="n">
         <v>31.25</v>
       </c>
     </row>
-    <row r="34">
-      <c r="F34">
-        <v>2400.0</v>
-      </c>
-      <c r="J34">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="J34" s="0" t="n">
         <v>98.92</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="0" t="n">
         <v>82.52</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="10" t="n">
         <v>87.29</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="0" t="n">
         <v>24.63</v>
       </c>
     </row>
-    <row r="35">
-      <c r="F35">
-        <v>3500.0</v>
-      </c>
-      <c r="J35" s="5">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="J35" s="5" t="n">
         <v>99.93</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="5" t="n">
         <v>83.99</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="5" t="n">
         <v>86.31</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="5" t="n">
         <v>19.49</v>
       </c>
     </row>
-    <row r="36">
-      <c r="F36">
-        <v>3900.0</v>
-      </c>
-      <c r="J36">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="J36" s="0" t="n">
         <v>99.93</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="0" t="n">
         <v>84.28</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="0" t="n">
         <v>88.51</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="0" t="n">
         <v>22.06</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D38">
-        <v>1357.0</v>
-      </c>
-      <c r="E38">
-        <v>907.0</v>
-      </c>
-      <c r="F38">
-        <v>900.0</v>
-      </c>
-      <c r="G38">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H38">
-        <v>32.0</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="D38" s="0" t="n">
+        <v>1357</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>907</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I38" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="0" t="n">
         <v>86.51</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="0" t="n">
         <v>74.2</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="0" t="n">
         <v>76.47</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="0" t="n">
         <v>29.2</v>
       </c>
     </row>
-    <row r="39">
-      <c r="F39">
-        <v>2000.0</v>
-      </c>
-      <c r="J39">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J39" s="0" t="n">
         <v>98.3</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="0" t="n">
         <v>79.05</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="0" t="n">
         <v>89.89</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="0" t="n">
         <v>37.19</v>
       </c>
     </row>
-    <row r="40">
-      <c r="F40">
-        <v>2800.0</v>
-      </c>
-      <c r="J40" s="5">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="0" t="n">
+        <v>2800</v>
+      </c>
+      <c r="J40" s="5" t="n">
         <v>99.85</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="5" t="n">
         <v>80.37</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="5" t="n">
         <v>86.4</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="5" t="n">
         <v>28.65</v>
       </c>
     </row>
-    <row r="41">
-      <c r="F41">
-        <v>3100.0</v>
-      </c>
-      <c r="J41">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="0" t="n">
+        <v>3100</v>
+      </c>
+      <c r="J41" s="0" t="n">
         <v>99.85</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="0" t="n">
         <v>82.69</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="0" t="n">
         <v>88.05</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="0" t="n">
         <v>32.51</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1188,100 +1355,100 @@
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
     </row>
-    <row r="43">
-      <c r="A43" t="s">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D43">
-        <v>2174.0</v>
-      </c>
-      <c r="E43">
-        <v>544.0</v>
-      </c>
-      <c r="F43">
-        <v>900.0</v>
-      </c>
-      <c r="G43">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H43">
-        <v>32.0</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="D43" s="0" t="n">
+        <v>2174</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>544</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I43" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="0" t="n">
         <v>79.11</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="0" t="n">
         <v>77.94</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="0" t="n">
         <v>77.21</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="0" t="n">
         <v>21.32</v>
       </c>
     </row>
-    <row r="44">
-      <c r="F44">
-        <v>1200.0</v>
-      </c>
-      <c r="J44">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J44" s="0" t="n">
         <v>83.85</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="0" t="n">
         <v>81.98</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="0" t="n">
         <v>79.41</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="0" t="n">
         <v>15.44</v>
       </c>
     </row>
-    <row r="45">
-      <c r="F45">
-        <v>3000.0</v>
-      </c>
-      <c r="J45">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J45" s="0" t="n">
         <v>99.44</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="0" t="n">
         <v>84.19</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="0" t="n">
         <v>87.13</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="0" t="n">
         <v>18.75</v>
       </c>
     </row>
-    <row r="46">
-      <c r="F46">
-        <v>3500.0</v>
-      </c>
-      <c r="J46" s="5">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="J46" s="5" t="n">
         <v>99.31</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="5" t="n">
         <v>84.55</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="5" t="n">
         <v>87.5</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="5" t="n">
         <v>18.38</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -1290,124 +1457,124 @@
       <c r="C48" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D48">
-        <v>1901.0</v>
-      </c>
-      <c r="E48">
-        <v>817.0</v>
-      </c>
-      <c r="F48">
-        <v>800.0</v>
-      </c>
-      <c r="G48">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H48">
-        <v>32.0</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="D48" s="0" t="n">
+        <v>1901</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>817</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I48" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="0" t="n">
         <v>80.37</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="0" t="n">
         <v>76.62</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="0" t="n">
         <v>82.11</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="0" t="n">
         <v>28.85</v>
       </c>
     </row>
-    <row r="49">
-      <c r="F49">
-        <v>2000.0</v>
-      </c>
-      <c r="J49">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J49" s="0" t="n">
         <v>97.26</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="0" t="n">
         <v>80.9</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="0" t="n">
         <v>81.13</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="0" t="n">
         <v>19.32</v>
       </c>
     </row>
-    <row r="50">
-      <c r="F50">
-        <v>2900.0</v>
-      </c>
-      <c r="J50">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="0" t="n">
+        <v>2900</v>
+      </c>
+      <c r="J50" s="0" t="n">
         <v>99.31</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="0" t="n">
         <v>79.68</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="0" t="n">
         <v>85.78</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="0" t="n">
         <v>26.41</v>
       </c>
     </row>
-    <row r="51">
-      <c r="F51">
-        <v>3500.0</v>
-      </c>
-      <c r="J51">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="J51" s="0" t="n">
         <v>99.47</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="0" t="n">
         <v>81.51</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="0" t="n">
         <v>81.86</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="0" t="n">
         <v>18.83</v>
       </c>
     </row>
-    <row r="52">
-      <c r="F52">
-        <v>4000.0</v>
-      </c>
-      <c r="J52" s="5">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F52" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J52" s="5" t="n">
         <v>99.89</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="5" t="n">
         <v>82.12</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="5" t="n">
         <v>83.09</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="5" t="n">
         <v>18.83</v>
       </c>
     </row>
-    <row r="53">
-      <c r="F53">
-        <v>4100.0</v>
-      </c>
-      <c r="J53">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="0" t="n">
+        <v>4100</v>
+      </c>
+      <c r="J53" s="0" t="n">
         <v>99.63</v>
       </c>
-      <c r="K53">
-        <v>82.0</v>
-      </c>
-      <c r="L53">
+      <c r="K53" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="L53" s="0" t="n">
         <v>85.54</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="0" t="n">
         <v>21.52</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -1416,106 +1583,106 @@
       <c r="C55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D55">
-        <v>1630.0</v>
-      </c>
-      <c r="E55">
-        <v>1088.0</v>
-      </c>
-      <c r="F55">
-        <v>1000.0</v>
-      </c>
-      <c r="G55">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H55">
-        <v>32.0</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="D55" s="0" t="n">
+        <v>1630</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1088</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I55" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="0" t="n">
         <v>84.04</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="0" t="n">
         <v>73.89</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="0" t="n">
         <v>86.21</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="0" t="n">
         <v>38.42</v>
       </c>
     </row>
-    <row r="56">
-      <c r="F56">
-        <v>2000.0</v>
-      </c>
-      <c r="J56">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F56" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J56" s="0" t="n">
         <v>98.83</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="0" t="n">
         <v>81.52</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="0" t="n">
         <v>81.8</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="0" t="n">
         <v>18.75</v>
       </c>
     </row>
-    <row r="57">
-      <c r="F57">
-        <v>2400.0</v>
-      </c>
-      <c r="J57">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F57" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="J57" s="0" t="n">
         <v>98.95</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="0" t="n">
         <v>81.61</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="0" t="n">
         <v>86.21</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="0" t="n">
         <v>22.98</v>
       </c>
     </row>
-    <row r="58">
-      <c r="F58">
-        <v>3000.0</v>
-      </c>
-      <c r="J58">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J58" s="0" t="n">
         <v>99.87</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="0" t="n">
         <v>82.62</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="0" t="n">
         <v>80.88</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="0" t="n">
         <v>15.63</v>
       </c>
     </row>
-    <row r="59">
-      <c r="F59">
-        <v>3100.0</v>
-      </c>
-      <c r="J59" s="5">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F59" s="0" t="n">
+        <v>3100</v>
+      </c>
+      <c r="J59" s="5" t="n">
         <v>99.93</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59" s="5" t="n">
         <v>83.08</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59" s="5" t="n">
         <v>85.48</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="5" t="n">
         <v>19.3</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -1543,12 +1710,12 @@
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -1576,7 +1743,7 @@
       <c r="Y62" s="12"/>
       <c r="Z62" s="12"/>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>1</v>
       </c>
@@ -1617,8 +1784,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="s">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -1627,171 +1794,171 @@
       <c r="C64" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D64">
-        <v>1359.0</v>
-      </c>
-      <c r="E64">
-        <v>339.0</v>
-      </c>
-      <c r="F64">
-        <v>1000.0</v>
-      </c>
-      <c r="G64">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H64">
-        <v>32.0</v>
+      <c r="D64" s="0" t="n">
+        <v>1359</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>339</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="I64" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J64" s="13" t="n">
         <v>87.6</v>
       </c>
-      <c r="K64" s="13">
+      <c r="K64" s="13" t="n">
         <v>88.2</v>
       </c>
-      <c r="L64" s="13">
+      <c r="L64" s="13" t="n">
         <v>92.5</v>
       </c>
-      <c r="M64" s="13">
+      <c r="M64" s="13" t="n">
         <v>9.11</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
-      <c r="F65" s="13">
-        <v>2000.0</v>
-      </c>
-      <c r="J65" s="14">
+      <c r="F65" s="13" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J65" s="14" t="n">
         <v>92.8</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K65" s="14" t="n">
         <v>90.6</v>
       </c>
-      <c r="L65" s="14">
+      <c r="L65" s="14" t="n">
         <v>93.9</v>
       </c>
-      <c r="M65" s="14">
+      <c r="M65" s="14" t="n">
         <v>22.3</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
-      <c r="F66" s="13">
-        <v>3000.0</v>
-      </c>
-      <c r="J66" s="14">
+      <c r="F66" s="13" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J66" s="14" t="n">
         <v>93.9</v>
       </c>
-      <c r="K66" s="14">
-        <v>91.0</v>
-      </c>
-      <c r="L66" s="14">
+      <c r="K66" s="14" t="n">
+        <v>91</v>
+      </c>
+      <c r="L66" s="14" t="n">
         <v>91.68</v>
       </c>
-      <c r="M66" s="14">
+      <c r="M66" s="14" t="n">
         <v>11.6</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
-      <c r="F67" s="13">
-        <v>3500.0</v>
-      </c>
-      <c r="J67" s="14">
+      <c r="F67" s="13" t="n">
+        <v>3500</v>
+      </c>
+      <c r="J67" s="14" t="n">
         <v>94.7</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K67" s="14" t="n">
         <v>91.6</v>
       </c>
-      <c r="L67" s="14">
+      <c r="L67" s="14" t="n">
         <v>95.73</v>
       </c>
-      <c r="M67" s="14">
+      <c r="M67" s="14" t="n">
         <v>24.9</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="3"/>
       <c r="C68" s="4"/>
-      <c r="F68" s="13">
-        <v>4000.0</v>
-      </c>
-      <c r="J68" s="14">
+      <c r="F68" s="13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J68" s="14" t="n">
         <v>96.04</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K68" s="14" t="n">
         <v>92.4</v>
       </c>
-      <c r="L68" s="14">
+      <c r="L68" s="14" t="n">
         <v>93.42</v>
       </c>
-      <c r="M68" s="14">
+      <c r="M68" s="14" t="n">
         <v>11.6</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
-      <c r="F69" s="13">
-        <v>5000.0</v>
-      </c>
-      <c r="J69" s="14">
+      <c r="F69" s="13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J69" s="14" t="n">
         <v>97.4</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K69" s="14" t="n">
         <v>93.63</v>
       </c>
-      <c r="L69" s="14">
+      <c r="L69" s="14" t="n">
         <v>93.73</v>
       </c>
-      <c r="M69" s="14">
+      <c r="M69" s="14" t="n">
         <v>6.75</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
-      <c r="F70" s="13">
-        <v>6500.0</v>
-      </c>
-      <c r="J70" s="14">
+      <c r="F70" s="13" t="n">
+        <v>6500</v>
+      </c>
+      <c r="J70" s="14" t="n">
         <v>98.61</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K70" s="14" t="n">
         <v>94.39</v>
       </c>
-      <c r="L70" s="14">
+      <c r="L70" s="14" t="n">
         <v>96.31</v>
       </c>
-      <c r="M70" s="14">
+      <c r="M70" s="14" t="n">
         <v>13.29</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
-      <c r="F71" s="13">
-        <v>8600.0</v>
-      </c>
-      <c r="J71" s="15">
+      <c r="F71" s="13" t="n">
+        <v>8600</v>
+      </c>
+      <c r="J71" s="15" t="n">
         <v>99.2</v>
       </c>
-      <c r="K71" s="15">
+      <c r="K71" s="15" t="n">
         <v>94.35</v>
       </c>
-      <c r="L71" s="15">
+      <c r="L71" s="15" t="n">
         <v>95.1</v>
       </c>
-      <c r="M71" s="15">
+      <c r="M71" s="15" t="n">
         <v>8.65</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
       <c r="F72" s="13"/>
@@ -1800,12 +1967,12 @@
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
     </row>
-    <row r="74">
-      <c r="A74" t="s">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -1814,76 +1981,76 @@
       <c r="C74" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D74">
-        <v>1186.0</v>
-      </c>
-      <c r="E74">
-        <v>512.0</v>
-      </c>
-      <c r="F74" s="13">
-        <v>5000.0</v>
-      </c>
-      <c r="G74">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H74">
-        <v>32.0</v>
+      <c r="D74" s="0" t="n">
+        <v>1186</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="F74" s="13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="I74" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J74" s="13" t="n">
         <v>97.89</v>
       </c>
-      <c r="K74" s="13">
+      <c r="K74" s="13" t="n">
         <v>93.49</v>
       </c>
-      <c r="L74" s="13">
+      <c r="L74" s="13" t="n">
         <v>95.62</v>
       </c>
-      <c r="M74" s="13">
+      <c r="M74" s="13" t="n">
         <v>14.81</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
-      <c r="F75" s="13">
-        <v>6500.0</v>
-      </c>
-      <c r="J75" s="13">
+      <c r="F75" s="13" t="n">
+        <v>6500</v>
+      </c>
+      <c r="J75" s="13" t="n">
         <v>98.66</v>
       </c>
-      <c r="K75" s="13">
+      <c r="K75" s="13" t="n">
         <v>93.61</v>
       </c>
-      <c r="L75" s="13">
+      <c r="L75" s="13" t="n">
         <v>96.04</v>
       </c>
-      <c r="M75" s="13">
+      <c r="M75" s="13" t="n">
         <v>15.91</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
-      <c r="F76" s="13">
-        <v>8000.0</v>
-      </c>
-      <c r="J76" s="15">
+      <c r="F76" s="13" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J76" s="15" t="n">
         <v>99.19</v>
       </c>
-      <c r="K76" s="15">
+      <c r="K76" s="15" t="n">
         <v>93.75</v>
       </c>
-      <c r="L76" s="15">
+      <c r="L76" s="15" t="n">
         <v>95.45</v>
       </c>
-      <c r="M76" s="15">
+      <c r="M76" s="15" t="n">
         <v>12.89</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
       <c r="J77" s="5"/>
@@ -1891,8 +2058,8 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78">
-      <c r="A78" t="s">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -1901,98 +2068,98 @@
       <c r="C78" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D78">
-        <v>1019.0</v>
-      </c>
-      <c r="E78">
-        <v>679.0</v>
-      </c>
-      <c r="F78" s="13">
-        <v>2500.0</v>
-      </c>
-      <c r="G78">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H78">
-        <v>32.0</v>
+      <c r="D78" s="0" t="n">
+        <v>1019</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>679</v>
+      </c>
+      <c r="F78" s="13" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="I78" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J78" s="13" t="n">
         <v>95.65</v>
       </c>
-      <c r="K78" s="13">
+      <c r="K78" s="13" t="n">
         <v>91.68</v>
       </c>
-      <c r="L78" s="13">
+      <c r="L78" s="13" t="n">
         <v>95.74</v>
       </c>
-      <c r="M78" s="13">
+      <c r="M78" s="13" t="n">
         <v>24.55</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C79" s="6"/>
-      <c r="F79" s="13">
-        <v>5000.0</v>
-      </c>
-      <c r="J79" s="13">
+      <c r="F79" s="13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J79" s="13" t="n">
         <v>98.14</v>
       </c>
-      <c r="K79" s="13">
+      <c r="K79" s="13" t="n">
         <v>93.01</v>
       </c>
-      <c r="L79" s="13">
+      <c r="L79" s="13" t="n">
         <v>95.69</v>
       </c>
-      <c r="M79" s="13">
+      <c r="M79" s="13" t="n">
         <v>17.7</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="3"/>
       <c r="C80" s="6"/>
-      <c r="F80" s="13">
-        <v>7500.0</v>
-      </c>
-      <c r="J80" s="16">
+      <c r="F80" s="13" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J80" s="16" t="n">
         <v>99.25</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K80" s="16" t="n">
         <v>93.49</v>
       </c>
-      <c r="L80" s="16">
+      <c r="L80" s="16" t="n">
         <v>96.14</v>
       </c>
-      <c r="M80" s="16">
+      <c r="M80" s="16" t="n">
         <v>17.07</v>
       </c>
       <c r="N80" s="17"/>
     </row>
-    <row r="81">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="3"/>
       <c r="C81" s="6"/>
-      <c r="F81" s="13">
-        <v>9000.0</v>
-      </c>
-      <c r="J81" s="15">
+      <c r="F81" s="13" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J81" s="15" t="n">
         <v>99.8</v>
       </c>
-      <c r="K81" s="15">
+      <c r="K81" s="15" t="n">
         <v>93.54</v>
       </c>
-      <c r="L81" s="15">
+      <c r="L81" s="15" t="n">
         <v>95.77</v>
       </c>
-      <c r="M81" s="15">
+      <c r="M81" s="15" t="n">
         <v>15.38</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
@@ -2020,99 +2187,99 @@
       <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
     </row>
-    <row r="83">
-      <c r="A83" t="s">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D83">
-        <v>1551.0</v>
-      </c>
-      <c r="E83">
-        <v>389.0</v>
-      </c>
-      <c r="F83">
-        <v>2000.0</v>
-      </c>
-      <c r="G83">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H83">
-        <v>32.0</v>
+      <c r="D83" s="0" t="n">
+        <v>1551</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>389</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="I83" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J83" s="14">
+      <c r="J83" s="14" t="n">
         <v>93.85</v>
       </c>
-      <c r="K83" s="14">
+      <c r="K83" s="14" t="n">
         <v>91.99</v>
       </c>
-      <c r="L83" s="14">
+      <c r="L83" s="14" t="n">
         <v>91.85</v>
       </c>
-      <c r="M83" s="14">
+      <c r="M83" s="14" t="n">
         <v>7.68</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="3"/>
-      <c r="F84" s="13">
-        <v>4000.0</v>
-      </c>
-      <c r="J84" s="14">
+      <c r="F84" s="13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J84" s="14" t="n">
         <v>96.24</v>
       </c>
-      <c r="K84" s="14">
+      <c r="K84" s="14" t="n">
         <v>93.64</v>
       </c>
-      <c r="L84" s="14">
+      <c r="L84" s="14" t="n">
         <v>94.8</v>
       </c>
-      <c r="M84" s="14">
+      <c r="M84" s="14" t="n">
         <v>9.02</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="3"/>
-      <c r="F85" s="13">
-        <v>7000.0</v>
-      </c>
-      <c r="J85" s="14">
+      <c r="F85" s="13" t="n">
+        <v>7000</v>
+      </c>
+      <c r="J85" s="14" t="n">
         <v>98.32</v>
       </c>
-      <c r="K85" s="14">
+      <c r="K85" s="14" t="n">
         <v>93.83</v>
       </c>
-      <c r="L85" s="14">
+      <c r="L85" s="14" t="n">
         <v>95.01</v>
       </c>
-      <c r="M85" s="14">
+      <c r="M85" s="14" t="n">
         <v>8.9</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="3"/>
-      <c r="J86" s="15">
+      <c r="J86" s="15" t="n">
         <v>99.07</v>
       </c>
-      <c r="K86" s="15">
+      <c r="K86" s="15" t="n">
         <v>94.08</v>
       </c>
-      <c r="L86" s="15">
+      <c r="L86" s="15" t="n">
         <v>95.22</v>
       </c>
-      <c r="M86" s="15">
+      <c r="M86" s="15" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="3"/>
       <c r="F87" s="13"/>
       <c r="I87" s="13"/>
@@ -2121,191 +2288,191 @@
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
     </row>
-    <row r="88">
-      <c r="A88" t="s">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D88">
-        <v>1356.0</v>
-      </c>
-      <c r="E88">
-        <v>584.0</v>
-      </c>
-      <c r="F88" s="13">
-        <v>2500.0</v>
-      </c>
-      <c r="G88">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H88">
-        <v>32.0</v>
+      <c r="D88" s="0" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>584</v>
+      </c>
+      <c r="F88" s="13" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="I88" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J88" s="14">
-        <v>93.0</v>
-      </c>
-      <c r="K88" s="14">
+      <c r="J88" s="14" t="n">
+        <v>93</v>
+      </c>
+      <c r="K88" s="14" t="n">
         <v>90.85</v>
       </c>
-      <c r="L88" s="14">
+      <c r="L88" s="14" t="n">
         <v>91.04</v>
       </c>
-      <c r="M88" s="14">
+      <c r="M88" s="14" t="n">
         <v>9.58</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="3"/>
-      <c r="F89" s="13">
-        <v>5000.0</v>
-      </c>
-      <c r="J89" s="14">
+      <c r="F89" s="13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J89" s="14" t="n">
         <v>97.35</v>
       </c>
-      <c r="K89" s="14">
+      <c r="K89" s="14" t="n">
         <v>93.59</v>
       </c>
-      <c r="L89" s="14">
+      <c r="L89" s="14" t="n">
         <v>94.26</v>
       </c>
-      <c r="M89" s="14">
+      <c r="M89" s="14" t="n">
         <v>7.95</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="3"/>
-      <c r="F90" s="13">
-        <v>9500.0</v>
-      </c>
-      <c r="J90" s="15">
+      <c r="F90" s="13" t="n">
+        <v>9500</v>
+      </c>
+      <c r="J90" s="15" t="n">
         <v>99.06</v>
       </c>
-      <c r="K90" s="15">
+      <c r="K90" s="15" t="n">
         <v>94.39</v>
       </c>
-      <c r="L90" s="15">
+      <c r="L90" s="15" t="n">
         <v>95.8</v>
       </c>
-      <c r="M90" s="15">
+      <c r="M90" s="15" t="n">
         <v>8.85</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="3"/>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
     </row>
-    <row r="92">
-      <c r="A92" t="s">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D92">
-        <v>1165.0</v>
-      </c>
-      <c r="E92">
-        <v>775.0</v>
-      </c>
-      <c r="F92" s="13">
-        <v>2500.0</v>
-      </c>
-      <c r="G92">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H92">
-        <v>32.0</v>
+      <c r="D92" s="0" t="n">
+        <v>1165</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>775</v>
+      </c>
+      <c r="F92" s="13" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="I92" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J92" s="14">
+      <c r="J92" s="14" t="n">
         <v>93.66</v>
       </c>
-      <c r="K92" s="14">
+      <c r="K92" s="14" t="n">
         <v>91.04</v>
       </c>
-      <c r="L92" s="14">
+      <c r="L92" s="14" t="n">
         <v>90.02</v>
       </c>
-      <c r="M92" s="14">
+      <c r="M92" s="14" t="n">
         <v>6.57</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F93" s="13">
-        <v>5000.0</v>
-      </c>
-      <c r="J93" s="14">
+      <c r="F93" s="13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J93" s="14" t="n">
         <v>96.72</v>
       </c>
-      <c r="K93" s="14">
+      <c r="K93" s="14" t="n">
         <v>92.25</v>
       </c>
-      <c r="L93" s="14">
+      <c r="L93" s="14" t="n">
         <v>91.73</v>
       </c>
-      <c r="M93" s="14">
+      <c r="M93" s="14" t="n">
         <v>6.51</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="3"/>
-      <c r="F94" s="13">
-        <v>7500.0</v>
-      </c>
-      <c r="J94" s="15">
+      <c r="F94" s="13" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J94" s="15" t="n">
         <v>98.93</v>
       </c>
-      <c r="K94" s="15">
+      <c r="K94" s="15" t="n">
         <v>93.67</v>
       </c>
-      <c r="L94" s="15">
+      <c r="L94" s="15" t="n">
         <v>94.44</v>
       </c>
-      <c r="M94" s="15">
+      <c r="M94" s="15" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="3"/>
-      <c r="F95" s="13">
-        <v>9500.0</v>
-      </c>
-      <c r="J95" s="14">
+      <c r="F95" s="13" t="n">
+        <v>9500</v>
+      </c>
+      <c r="J95" s="14" t="n">
         <v>99.61</v>
       </c>
-      <c r="K95" s="14">
+      <c r="K95" s="14" t="n">
         <v>93.71</v>
       </c>
-      <c r="L95" s="14">
+      <c r="L95" s="14" t="n">
         <v>95.44</v>
       </c>
-      <c r="M95" s="14">
+      <c r="M95" s="14" t="n">
         <v>10.31</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="C96" s="7"/>
@@ -2333,339 +2500,339 @@
       <c r="Y96" s="7"/>
       <c r="Z96" s="7"/>
     </row>
-    <row r="97">
-      <c r="A97" t="s">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D97">
-        <v>1810.0</v>
-      </c>
-      <c r="E97">
-        <v>454.0</v>
-      </c>
-      <c r="F97" s="13">
-        <v>2500.0</v>
-      </c>
-      <c r="G97">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H97">
-        <v>32.0</v>
+      <c r="D97" s="0" t="n">
+        <v>1810</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>454</v>
+      </c>
+      <c r="F97" s="13" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="I97" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J97" s="14">
+      <c r="J97" s="14" t="n">
         <v>93.59</v>
       </c>
-      <c r="K97" s="14">
+      <c r="K97" s="14" t="n">
         <v>91.97</v>
       </c>
-      <c r="L97" s="14">
+      <c r="L97" s="14" t="n">
         <v>90.28</v>
       </c>
-      <c r="M97" s="14">
+      <c r="M97" s="14" t="n">
         <v>5.49</v>
       </c>
     </row>
-    <row r="98">
-      <c r="F98" s="13">
-        <v>5000.0</v>
-      </c>
-      <c r="J98" s="14">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F98" s="13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J98" s="14" t="n">
         <v>96.52</v>
       </c>
-      <c r="K98" s="14">
+      <c r="K98" s="14" t="n">
         <v>93.42</v>
       </c>
-      <c r="L98" s="14">
+      <c r="L98" s="14" t="n">
         <v>92.07</v>
       </c>
-      <c r="M98" s="14">
+      <c r="M98" s="14" t="n">
         <v>4.55</v>
       </c>
     </row>
-    <row r="99">
-      <c r="F99" s="13">
-        <v>7000.0</v>
-      </c>
-      <c r="J99" s="14">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F99" s="13" t="n">
+        <v>7000</v>
+      </c>
+      <c r="J99" s="14" t="n">
         <v>98.24</v>
       </c>
-      <c r="K99" s="14">
+      <c r="K99" s="14" t="n">
         <v>94.02</v>
       </c>
-      <c r="L99" s="14">
+      <c r="L99" s="14" t="n">
         <v>94.38</v>
       </c>
-      <c r="M99" s="14">
+      <c r="M99" s="14" t="n">
         <v>6.51</v>
       </c>
     </row>
-    <row r="100">
-      <c r="F100" s="13">
-        <v>7500.0</v>
-      </c>
-      <c r="J100" s="13">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F100" s="13" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J100" s="13" t="n">
         <v>97.79</v>
       </c>
-      <c r="K100" s="13">
+      <c r="K100" s="13" t="n">
         <v>93.98</v>
       </c>
-      <c r="L100" s="13">
+      <c r="L100" s="13" t="n">
         <v>92.33</v>
       </c>
-      <c r="M100" s="13">
+      <c r="M100" s="13" t="n">
         <v>3.53</v>
       </c>
     </row>
-    <row r="101">
-      <c r="F101" s="13">
-        <v>8500.0</v>
-      </c>
-      <c r="J101" s="13">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F101" s="13" t="n">
+        <v>8500</v>
+      </c>
+      <c r="J101" s="13" t="n">
         <v>98.73</v>
       </c>
-      <c r="K101" s="13">
+      <c r="K101" s="13" t="n">
         <v>94.33</v>
       </c>
-      <c r="L101" s="13">
+      <c r="L101" s="13" t="n">
         <v>93.59</v>
       </c>
-      <c r="M101" s="13">
+      <c r="M101" s="13" t="n">
         <v>4.55</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="3"/>
-      <c r="F102" s="13">
-        <v>10500.0</v>
-      </c>
-      <c r="J102" s="11">
+      <c r="F102" s="13" t="n">
+        <v>10500</v>
+      </c>
+      <c r="J102" s="11" t="n">
         <v>99.19</v>
       </c>
-      <c r="K102" s="11">
+      <c r="K102" s="11" t="n">
         <v>94.39</v>
       </c>
-      <c r="L102" s="11">
+      <c r="L102" s="11" t="n">
         <v>94.22</v>
       </c>
-      <c r="M102" s="11">
+      <c r="M102" s="11" t="n">
         <v>5.34</v>
       </c>
       <c r="N102" s="18"/>
     </row>
-    <row r="103">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="3"/>
     </row>
-    <row r="104">
-      <c r="A104" t="s">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D104">
-        <v>1583.0</v>
-      </c>
-      <c r="E104">
-        <v>681.0</v>
-      </c>
-      <c r="F104" s="13">
-        <v>3000.0</v>
-      </c>
-      <c r="G104">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H104">
-        <v>32.0</v>
+      <c r="D104" s="0" t="n">
+        <v>1583</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>681</v>
+      </c>
+      <c r="F104" s="13" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="I104" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J104" s="13">
+      <c r="J104" s="13" t="n">
         <v>94.7</v>
       </c>
-      <c r="K104" s="13">
+      <c r="K104" s="13" t="n">
         <v>92.15</v>
       </c>
-      <c r="L104" s="13">
+      <c r="L104" s="13" t="n">
         <v>91.07</v>
       </c>
-      <c r="M104" s="13">
+      <c r="M104" s="13" t="n">
         <v>6.22</v>
       </c>
     </row>
-    <row r="105">
-      <c r="F105" s="13">
-        <v>7000.0</v>
-      </c>
-      <c r="J105" s="13">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F105" s="13" t="n">
+        <v>7000</v>
+      </c>
+      <c r="J105" s="13" t="n">
         <v>97.93</v>
       </c>
-      <c r="K105" s="13">
+      <c r="K105" s="13" t="n">
         <v>93.76</v>
       </c>
-      <c r="L105" s="13">
+      <c r="L105" s="13" t="n">
         <v>93.03</v>
       </c>
-      <c r="M105" s="13">
+      <c r="M105" s="13" t="n">
         <v>5.13</v>
       </c>
     </row>
-    <row r="106">
-      <c r="F106" s="13">
-        <v>8500.0</v>
-      </c>
-      <c r="J106" s="13">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F106" s="13" t="n">
+        <v>8500</v>
+      </c>
+      <c r="J106" s="13" t="n">
         <v>97.79</v>
       </c>
-      <c r="K106" s="13">
+      <c r="K106" s="13" t="n">
         <v>94.04</v>
       </c>
-      <c r="L106" s="14">
+      <c r="L106" s="14" t="n">
         <v>93.1</v>
       </c>
-      <c r="M106" s="13">
+      <c r="M106" s="13" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="107">
-      <c r="F107" s="13">
-        <v>9000.0</v>
-      </c>
-      <c r="J107" s="14">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F107" s="13" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J107" s="14" t="n">
         <v>98.66</v>
       </c>
-      <c r="K107" s="14">
+      <c r="K107" s="14" t="n">
         <v>93.93</v>
       </c>
-      <c r="L107" s="14">
+      <c r="L107" s="14" t="n">
         <v>95.1</v>
       </c>
-      <c r="M107" s="14">
+      <c r="M107" s="14" t="n">
         <v>7.79</v>
       </c>
     </row>
-    <row r="108">
-      <c r="F108" s="13">
-        <v>10000.0</v>
-      </c>
-      <c r="J108" s="11">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F108" s="13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J108" s="11" t="n">
         <v>99.05</v>
       </c>
-      <c r="K108" s="11">
+      <c r="K108" s="11" t="n">
         <v>94.21</v>
       </c>
-      <c r="L108" s="11">
+      <c r="L108" s="11" t="n">
         <v>93.56</v>
       </c>
-      <c r="M108" s="11">
+      <c r="M108" s="11" t="n">
         <v>4.81</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="s">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D110">
-        <v>1357.0</v>
-      </c>
-      <c r="E110">
-        <v>907.0</v>
-      </c>
-      <c r="F110">
-        <v>900.0</v>
-      </c>
-      <c r="G110">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H110">
-        <v>32.0</v>
-      </c>
-      <c r="I110" t="s">
-        <v>20</v>
-      </c>
-      <c r="J110">
-        <v>86.51</v>
-      </c>
-      <c r="K110">
-        <v>74.2</v>
-      </c>
-      <c r="L110">
-        <v>76.47</v>
-      </c>
-      <c r="M110">
-        <v>29.2</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="F111">
-        <v>2000.0</v>
-      </c>
-      <c r="J111">
-        <v>98.3</v>
-      </c>
-      <c r="K111">
-        <v>79.05</v>
-      </c>
-      <c r="L111">
-        <v>89.89</v>
-      </c>
-      <c r="M111">
-        <v>37.19</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="F112" s="13">
-        <v>28.0</v>
-      </c>
-      <c r="J112" s="5">
-        <v>99.85</v>
-      </c>
-      <c r="K112" s="5">
-        <v>80.37</v>
-      </c>
-      <c r="L112" s="5">
-        <v>86.4</v>
-      </c>
-      <c r="M112" s="5">
-        <v>28.65</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="F113">
-        <v>3100.0</v>
-      </c>
-      <c r="J113">
-        <v>99.85</v>
-      </c>
-      <c r="K113">
-        <v>82.69</v>
-      </c>
-      <c r="L113">
-        <v>88.05</v>
-      </c>
-      <c r="M113">
-        <v>32.51</v>
-      </c>
-    </row>
-    <row r="114">
+      <c r="D110" s="0" t="n">
+        <v>1357</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>907</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I110" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J110" s="0" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="K110" s="0" t="n">
+        <v>90.54</v>
+      </c>
+      <c r="L110" s="0" t="n">
+        <v>86.03</v>
+      </c>
+      <c r="M110" s="0" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F111" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="J111" s="0" t="n">
+        <v>94.12</v>
+      </c>
+      <c r="K111" s="0" t="n">
+        <v>91.28</v>
+      </c>
+      <c r="L111" s="0" t="n">
+        <v>88.29</v>
+      </c>
+      <c r="M111" s="0" t="n">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F112" s="13" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J112" s="0" t="n">
+        <v>98.48</v>
+      </c>
+      <c r="K112" s="0" t="n">
+        <v>93.38</v>
+      </c>
+      <c r="L112" s="0" t="n">
+        <v>91.73</v>
+      </c>
+      <c r="M112" s="0" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F113" s="0" t="n">
+        <v>9500</v>
+      </c>
+      <c r="J113" s="5" t="n">
+        <v>99.46</v>
+      </c>
+      <c r="K113" s="5" t="n">
+        <v>93.82</v>
+      </c>
+      <c r="L113" s="5" t="n">
+        <v>94.12</v>
+      </c>
+      <c r="M113" s="5" t="n">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -2693,100 +2860,100 @@
       <c r="Y114" s="7"/>
       <c r="Z114" s="7"/>
     </row>
-    <row r="115">
-      <c r="A115" t="s">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D115">
-        <v>2174.0</v>
-      </c>
-      <c r="E115">
-        <v>544.0</v>
-      </c>
-      <c r="F115">
-        <v>900.0</v>
-      </c>
-      <c r="G115">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H115">
-        <v>32.0</v>
-      </c>
-      <c r="I115" t="s">
-        <v>20</v>
-      </c>
-      <c r="J115">
-        <v>79.11</v>
-      </c>
-      <c r="K115">
-        <v>77.94</v>
-      </c>
-      <c r="L115">
-        <v>77.21</v>
-      </c>
-      <c r="M115">
-        <v>21.32</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="F116">
-        <v>1200.0</v>
-      </c>
-      <c r="J116">
-        <v>83.85</v>
-      </c>
-      <c r="K116">
-        <v>81.98</v>
-      </c>
-      <c r="L116">
-        <v>79.41</v>
-      </c>
-      <c r="M116">
-        <v>15.44</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="F117">
-        <v>3000.0</v>
-      </c>
-      <c r="J117">
-        <v>99.44</v>
-      </c>
-      <c r="K117">
-        <v>84.19</v>
-      </c>
-      <c r="L117">
-        <v>87.13</v>
-      </c>
-      <c r="M117">
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="F118">
-        <v>3500.0</v>
-      </c>
-      <c r="J118" s="5">
-        <v>99.31</v>
-      </c>
-      <c r="K118" s="5">
-        <v>84.55</v>
-      </c>
-      <c r="L118" s="5">
-        <v>87.5</v>
-      </c>
-      <c r="M118" s="5">
-        <v>18.38</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
+      <c r="D115" s="0" t="n">
+        <v>2174</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>544</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J115" s="0" t="n">
+        <v>96.85</v>
+      </c>
+      <c r="K115" s="0" t="n">
+        <v>94.06</v>
+      </c>
+      <c r="L115" s="0" t="n">
+        <v>92.54</v>
+      </c>
+      <c r="M115" s="0" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F116" s="0" t="n">
+        <v>6500</v>
+      </c>
+      <c r="J116" s="0" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="K116" s="0" t="n">
+        <v>94.19</v>
+      </c>
+      <c r="L116" s="0" t="n">
+        <v>90.34</v>
+      </c>
+      <c r="M116" s="0" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F117" s="0" t="n">
+        <v>7000</v>
+      </c>
+      <c r="J117" s="0" t="n">
+        <v>97.52</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <v>95.08</v>
+      </c>
+      <c r="L117" s="0" t="n">
+        <v>93.07</v>
+      </c>
+      <c r="M117" s="0" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F118" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J118" s="5" t="n">
+        <v>98.92</v>
+      </c>
+      <c r="K118" s="5" t="n">
+        <v>95.4</v>
+      </c>
+      <c r="L118" s="5" t="n">
+        <v>93.49</v>
+      </c>
+      <c r="M118" s="5" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B120" s="6" t="s">
@@ -2795,124 +2962,124 @@
       <c r="C120" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D120">
-        <v>1901.0</v>
-      </c>
-      <c r="E120">
-        <v>817.0</v>
-      </c>
-      <c r="F120">
-        <v>800.0</v>
-      </c>
-      <c r="G120">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H120">
-        <v>32.0</v>
-      </c>
-      <c r="I120" t="s">
+      <c r="D120" s="0" t="n">
+        <v>1901</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>817</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I120" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="0" t="n">
         <v>80.37</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="0" t="n">
         <v>76.62</v>
       </c>
-      <c r="L120">
+      <c r="L120" s="0" t="n">
         <v>82.11</v>
       </c>
-      <c r="M120">
+      <c r="M120" s="0" t="n">
         <v>28.85</v>
       </c>
     </row>
-    <row r="121">
-      <c r="F121">
-        <v>2000.0</v>
-      </c>
-      <c r="J121">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F121" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J121" s="0" t="n">
         <v>97.26</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="0" t="n">
         <v>80.9</v>
       </c>
-      <c r="L121">
+      <c r="L121" s="0" t="n">
         <v>81.13</v>
       </c>
-      <c r="M121">
+      <c r="M121" s="0" t="n">
         <v>19.32</v>
       </c>
     </row>
-    <row r="122">
-      <c r="F122">
-        <v>2900.0</v>
-      </c>
-      <c r="J122">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F122" s="0" t="n">
+        <v>2900</v>
+      </c>
+      <c r="J122" s="0" t="n">
         <v>99.31</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="0" t="n">
         <v>79.68</v>
       </c>
-      <c r="L122">
+      <c r="L122" s="0" t="n">
         <v>85.78</v>
       </c>
-      <c r="M122">
+      <c r="M122" s="0" t="n">
         <v>26.41</v>
       </c>
     </row>
-    <row r="123">
-      <c r="F123">
-        <v>3500.0</v>
-      </c>
-      <c r="J123">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F123" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="J123" s="0" t="n">
         <v>99.47</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="0" t="n">
         <v>81.51</v>
       </c>
-      <c r="L123">
+      <c r="L123" s="0" t="n">
         <v>81.86</v>
       </c>
-      <c r="M123">
+      <c r="M123" s="0" t="n">
         <v>18.83</v>
       </c>
     </row>
-    <row r="124">
-      <c r="F124">
-        <v>4000.0</v>
-      </c>
-      <c r="J124" s="5">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F124" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J124" s="5" t="n">
         <v>99.89</v>
       </c>
-      <c r="K124" s="5">
+      <c r="K124" s="5" t="n">
         <v>82.12</v>
       </c>
-      <c r="L124" s="5">
+      <c r="L124" s="5" t="n">
         <v>83.09</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="5" t="n">
         <v>18.83</v>
       </c>
     </row>
-    <row r="125">
-      <c r="F125">
-        <v>4100.0</v>
-      </c>
-      <c r="J125">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F125" s="0" t="n">
+        <v>4100</v>
+      </c>
+      <c r="J125" s="0" t="n">
         <v>99.63</v>
       </c>
-      <c r="K125">
-        <v>82.0</v>
-      </c>
-      <c r="L125">
+      <c r="K125" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="L125" s="0" t="n">
         <v>85.54</v>
       </c>
-      <c r="M125">
+      <c r="M125" s="0" t="n">
         <v>21.52</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="s">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B127" s="6" t="s">
@@ -2921,106 +3088,106 @@
       <c r="C127" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D127">
-        <v>1630.0</v>
-      </c>
-      <c r="E127">
-        <v>1088.0</v>
-      </c>
-      <c r="F127">
-        <v>1000.0</v>
-      </c>
-      <c r="G127">
-        <v>1.0E-4</v>
-      </c>
-      <c r="H127">
-        <v>32.0</v>
-      </c>
-      <c r="I127" t="s">
+      <c r="D127" s="0" t="n">
+        <v>1630</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>1088</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I127" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="0" t="n">
         <v>84.04</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="0" t="n">
         <v>73.89</v>
       </c>
-      <c r="L127">
+      <c r="L127" s="0" t="n">
         <v>86.21</v>
       </c>
-      <c r="M127">
+      <c r="M127" s="0" t="n">
         <v>38.42</v>
       </c>
     </row>
-    <row r="128">
-      <c r="F128">
-        <v>2000.0</v>
-      </c>
-      <c r="J128">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F128" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J128" s="0" t="n">
         <v>98.83</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="0" t="n">
         <v>81.52</v>
       </c>
-      <c r="L128">
+      <c r="L128" s="0" t="n">
         <v>81.8</v>
       </c>
-      <c r="M128">
+      <c r="M128" s="0" t="n">
         <v>18.75</v>
       </c>
     </row>
-    <row r="129">
-      <c r="F129">
-        <v>2400.0</v>
-      </c>
-      <c r="J129">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F129" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="J129" s="0" t="n">
         <v>98.95</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="0" t="n">
         <v>81.61</v>
       </c>
-      <c r="L129">
+      <c r="L129" s="0" t="n">
         <v>86.21</v>
       </c>
-      <c r="M129">
+      <c r="M129" s="0" t="n">
         <v>22.98</v>
       </c>
     </row>
-    <row r="130">
-      <c r="F130">
-        <v>3000.0</v>
-      </c>
-      <c r="J130">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F130" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J130" s="0" t="n">
         <v>99.87</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="0" t="n">
         <v>82.62</v>
       </c>
-      <c r="L130">
+      <c r="L130" s="0" t="n">
         <v>80.88</v>
       </c>
-      <c r="M130">
+      <c r="M130" s="0" t="n">
         <v>15.63</v>
       </c>
     </row>
-    <row r="131">
-      <c r="F131">
-        <v>3100.0</v>
-      </c>
-      <c r="J131" s="5">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F131" s="0" t="n">
+        <v>3100</v>
+      </c>
+      <c r="J131" s="5" t="n">
         <v>99.93</v>
       </c>
-      <c r="K131" s="5">
+      <c r="K131" s="5" t="n">
         <v>83.08</v>
       </c>
-      <c r="L131" s="5">
+      <c r="L131" s="5" t="n">
         <v>85.48</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="5" t="n">
         <v>19.3</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -3049,34 +3216,66 @@
       <c r="Z132" s="7"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="8.57"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.5668016194332"/>
   </cols>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="8.57"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.5668016194332"/>
   </cols>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Results/CNN_Results.xlsx
+++ b/Results/CNN_Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="922" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,90 +13,82 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="24">
   <si>
-    <t xml:space="preserve">Project - Pulmonary Nodule Detection &amp; Lung Cancer Prediction - Convolutional Neural Network Models - Results</t>
+    <t>Project - Pulmonary Nodule Detection &amp; Lung Cancer Prediction - Convolutional Neural Network Models - Results</t>
   </si>
   <si>
-    <t xml:space="preserve">Model</t>
+    <t>Model</t>
   </si>
   <si>
-    <t xml:space="preserve">Pos_neg_ratio</t>
+    <t>Pos_neg_ratio</t>
   </si>
   <si>
-    <t xml:space="preserve">Train_Test_ratio</t>
+    <t>Train_Test_ratio</t>
   </si>
   <si>
-    <t xml:space="preserve">Train examples</t>
+    <t>Train examples</t>
   </si>
   <si>
-    <t xml:space="preserve">Test examples</t>
+    <t>Test examples</t>
   </si>
   <si>
-    <t xml:space="preserve"> Epochs</t>
+    <t>Epochs</t>
   </si>
   <si>
-    <t xml:space="preserve">Learning Rate</t>
+    <t>Learning Rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Batch size</t>
+    <t>Batch size</t>
   </si>
   <si>
-    <t xml:space="preserve">Over Sampling</t>
+    <t>Over Sampling</t>
   </si>
   <si>
-    <t xml:space="preserve">Train acc</t>
+    <t>Train acc</t>
   </si>
   <si>
-    <t xml:space="preserve"> Test acc</t>
+    <t>Test acc</t>
   </si>
   <si>
-    <t xml:space="preserve">   TPR</t>
+    <t>TPR</t>
   </si>
   <si>
-    <t xml:space="preserve">   FPR</t>
+    <t>FPR</t>
   </si>
   <si>
-    <t xml:space="preserve">cnn_model4</t>
+    <t>cnn_model4</t>
   </si>
   <si>
-    <t xml:space="preserve"> 80:20</t>
+    <t>80:20</t>
   </si>
   <si>
-    <t xml:space="preserve"> no</t>
+    <t>no</t>
   </si>
   <si>
-    <t xml:space="preserve"> 70:30</t>
+    <t>70:30</t>
   </si>
   <si>
-    <t xml:space="preserve"> 60:40</t>
+    <t>60:40</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>50:50</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
+    <t>OverSampled Data</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50:50</t>
+    <t>Train examples*7</t>
   </si>
   <si>
-    <t xml:space="preserve">OverSampled Data</t>
+    <t>Test examples*7</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yes</t>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -104,90 +96,90 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY\ HH:MM"/>
-    <numFmt numFmtId="166" formatCode="HH:MM"/>
-    <numFmt numFmtId="167" formatCode="[H]:MM:SS"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="DD/MM/YY\ HH:MM" numFmtId="165"/>
+    <numFmt formatCode="HH:MM" numFmtId="166"/>
+    <numFmt formatCode="[H]:MM:SS" numFmtId="167"/>
   </numFmts>
   <fonts count="12">
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
       <b val="true"/>
+      <color rgb="001F497D"/>
       <sz val="15"/>
-      <color rgb="FF1F497D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
+      <family val="1"/>
+      <b val="true"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="1"/>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="1"/>
+      <color rgb="00000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="1"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -199,198 +191,161 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0504D"/>
-        <bgColor rgb="FF993366"/>
+        <fgColor rgb="00C0504D"/>
+        <bgColor rgb="00993366"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom style="thick">
-        <color rgb="FF4F81BD"/>
+        <color rgb="004F81BD"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="7" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="7" numFmtId="167" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FFC0504D"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF4F81BD"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF1F497D"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00C0504D"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="004F81BD"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="001F497D"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -403,28 +358,27 @@
   </sheetPr>
   <dimension ref="A1:Z132"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D108" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J115" activeCellId="0" sqref="J115"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A50" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D72" activeCellId="0" pane="topLeft" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.63967611336032"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1725490196078"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3882352941176"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.8"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.2313725490196"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.9019607843137"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.72549019607843"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.1529411764706"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="14.6862745098039"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.1" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +408,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -495,7 +449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
         <v>14</v>
       </c>
@@ -536,7 +490,7 @@
         <v>67.65</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="F5" s="0" t="n">
@@ -555,11 +509,11 @@
         <v>52.94</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
         <v>14</v>
       </c>
@@ -600,7 +554,7 @@
         <v>41.75</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="F8" s="0" t="n">
@@ -619,7 +573,7 @@
         <v>63.11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="F9" s="0" t="n">
@@ -638,7 +592,7 @@
         <v>58.25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="J10" s="5"/>
@@ -646,7 +600,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
         <v>14</v>
       </c>
@@ -687,10 +641,8 @@
         <v>66.91</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
+      <c r="B12" s="3"/>
       <c r="C12" s="6"/>
       <c r="F12" s="0" t="n">
         <v>2000</v>
@@ -708,7 +660,7 @@
         <v>61.03</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
       <c r="B13" s="3"/>
       <c r="C13" s="6"/>
       <c r="F13" s="0" t="n">
@@ -727,7 +679,7 @@
         <v>63.97</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -755,7 +707,7 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
         <v>14</v>
       </c>
@@ -796,7 +748,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
       <c r="B16" s="3"/>
       <c r="F16" s="0" t="n">
         <v>2800</v>
@@ -814,7 +766,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
       <c r="B17" s="3"/>
       <c r="F17" s="0" t="n">
         <v>3800</v>
@@ -832,14 +784,14 @@
         <v>47.86</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
       <c r="B18" s="3"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
       <c r="A19" s="0" t="s">
         <v>14</v>
       </c>
@@ -880,7 +832,7 @@
         <v>57.71</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
       <c r="B20" s="3"/>
       <c r="F20" s="0" t="n">
         <v>1500</v>
@@ -898,7 +850,7 @@
         <v>41.71</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
       <c r="B21" s="3"/>
       <c r="F21" s="0" t="n">
         <v>2700</v>
@@ -916,14 +868,14 @@
         <v>29.71</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="22">
       <c r="B22" s="3"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
       <c r="A23" s="0" t="s">
         <v>14</v>
       </c>
@@ -964,13 +916,8 @@
         <v>50.21</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>19</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="24">
+      <c r="B24" s="3"/>
       <c r="F24" s="0" t="n">
         <v>1900</v>
       </c>
@@ -987,7 +934,7 @@
         <v>47.64</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="25">
       <c r="B25" s="3"/>
       <c r="F25" s="0" t="n">
         <v>2200</v>
@@ -1005,7 +952,7 @@
         <v>38.2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="26">
       <c r="B26" s="3"/>
       <c r="F26" s="0" t="n">
         <v>2300</v>
@@ -1023,7 +970,7 @@
         <v>45.49</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="7"/>
@@ -1051,7 +998,7 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="28">
       <c r="A28" s="0" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1039,7 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29">
       <c r="F29" s="0" t="n">
         <v>1900</v>
       </c>
@@ -1109,7 +1056,7 @@
         <v>32.42</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30">
       <c r="F30" s="0" t="n">
         <v>2700</v>
       </c>
@@ -1126,7 +1073,7 @@
         <v>25.27</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="32">
       <c r="A32" s="0" t="s">
         <v>14</v>
       </c>
@@ -1152,7 +1099,7 @@
         <v>32</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>79.09</v>
@@ -1167,7 +1114,7 @@
         <v>47.43</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="33">
       <c r="F33" s="0" t="n">
         <v>1600</v>
       </c>
@@ -1184,7 +1131,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="34">
       <c r="F34" s="0" t="n">
         <v>2400</v>
       </c>
@@ -1201,7 +1148,7 @@
         <v>24.63</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="35">
       <c r="F35" s="0" t="n">
         <v>3500</v>
       </c>
@@ -1218,7 +1165,7 @@
         <v>19.49</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="36">
       <c r="F36" s="0" t="n">
         <v>3900</v>
       </c>
@@ -1235,7 +1182,7 @@
         <v>22.06</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="38">
       <c r="A38" s="0" t="s">
         <v>14</v>
       </c>
@@ -1261,7 +1208,7 @@
         <v>32</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>86.51</v>
@@ -1276,7 +1223,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="39">
       <c r="F39" s="0" t="n">
         <v>2000</v>
       </c>
@@ -1293,7 +1240,7 @@
         <v>37.19</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="40">
       <c r="F40" s="0" t="n">
         <v>2800</v>
       </c>
@@ -1310,7 +1257,7 @@
         <v>28.65</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="41">
       <c r="F41" s="0" t="n">
         <v>3100</v>
       </c>
@@ -1327,7 +1274,7 @@
         <v>32.51</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="42">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1355,12 +1302,12 @@
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="43">
       <c r="A43" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>15</v>
@@ -1381,7 +1328,7 @@
         <v>32</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>79.11</v>
@@ -1396,7 +1343,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="44">
       <c r="F44" s="0" t="n">
         <v>1200</v>
       </c>
@@ -1413,7 +1360,7 @@
         <v>15.44</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="45">
       <c r="F45" s="0" t="n">
         <v>3000</v>
       </c>
@@ -1430,7 +1377,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="46">
       <c r="F46" s="0" t="n">
         <v>3500</v>
       </c>
@@ -1447,12 +1394,12 @@
         <v>18.38</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="48">
       <c r="A48" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>17</v>
@@ -1473,7 +1420,7 @@
         <v>32</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>80.37</v>
@@ -1488,7 +1435,7 @@
         <v>28.85</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="49">
       <c r="F49" s="0" t="n">
         <v>2000</v>
       </c>
@@ -1505,7 +1452,7 @@
         <v>19.32</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="50">
       <c r="F50" s="0" t="n">
         <v>2900</v>
       </c>
@@ -1522,7 +1469,7 @@
         <v>26.41</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="51">
       <c r="F51" s="0" t="n">
         <v>3500</v>
       </c>
@@ -1539,7 +1486,7 @@
         <v>18.83</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="52">
       <c r="F52" s="0" t="n">
         <v>4000</v>
       </c>
@@ -1556,7 +1503,7 @@
         <v>18.83</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="53">
       <c r="F53" s="0" t="n">
         <v>4100</v>
       </c>
@@ -1573,12 +1520,12 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="55">
       <c r="A55" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>18</v>
@@ -1599,7 +1546,7 @@
         <v>32</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>84.04</v>
@@ -1614,7 +1561,7 @@
         <v>38.42</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="56">
       <c r="F56" s="0" t="n">
         <v>2000</v>
       </c>
@@ -1631,7 +1578,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="57">
       <c r="F57" s="0" t="n">
         <v>2400</v>
       </c>
@@ -1648,7 +1595,7 @@
         <v>22.98</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="58">
       <c r="F58" s="0" t="n">
         <v>3000</v>
       </c>
@@ -1665,7 +1612,7 @@
         <v>15.63</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="59">
       <c r="F59" s="0" t="n">
         <v>3100</v>
       </c>
@@ -1682,7 +1629,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="60">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -1710,12 +1657,12 @@
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="61">
       <c r="A61" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="62">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -1743,7 +1690,7 @@
       <c r="Y62" s="12"/>
       <c r="Z62" s="12"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="63">
       <c r="A63" s="2" t="s">
         <v>1</v>
       </c>
@@ -1754,10 +1701,10 @@
         <v>3</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>6</v>
@@ -1784,7 +1731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="64">
       <c r="A64" s="0" t="s">
         <v>14</v>
       </c>
@@ -1825,7 +1772,7 @@
         <v>9.11</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="65">
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
       <c r="F65" s="13" t="n">
@@ -1844,7 +1791,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="66">
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
       <c r="F66" s="13" t="n">
@@ -1863,7 +1810,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="67">
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
       <c r="F67" s="13" t="n">
@@ -1882,7 +1829,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="68">
       <c r="B68" s="3"/>
       <c r="C68" s="4"/>
       <c r="F68" s="13" t="n">
@@ -1901,7 +1848,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="69">
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
       <c r="F69" s="13" t="n">
@@ -1920,7 +1867,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="70">
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
       <c r="F70" s="13" t="n">
@@ -1939,7 +1886,7 @@
         <v>13.29</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="71">
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
       <c r="F71" s="13" t="n">
@@ -1958,7 +1905,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="72">
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
       <c r="F72" s="13"/>
@@ -1967,11 +1914,11 @@
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="73">
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="74">
       <c r="A74" s="0" t="s">
         <v>14</v>
       </c>
@@ -2012,7 +1959,7 @@
         <v>14.81</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="75">
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
       <c r="F75" s="13" t="n">
@@ -2031,7 +1978,7 @@
         <v>15.91</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="76">
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
       <c r="F76" s="13" t="n">
@@ -2050,7 +1997,7 @@
         <v>12.89</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="77">
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
       <c r="J77" s="5"/>
@@ -2058,7 +2005,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="78">
       <c r="A78" s="0" t="s">
         <v>14</v>
       </c>
@@ -2099,10 +2046,8 @@
         <v>24.55</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="3" t="s">
-        <v>19</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="79">
+      <c r="B79" s="3"/>
       <c r="C79" s="6"/>
       <c r="F79" s="13" t="n">
         <v>5000</v>
@@ -2120,7 +2065,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="80">
       <c r="B80" s="3"/>
       <c r="C80" s="6"/>
       <c r="F80" s="13" t="n">
@@ -2140,7 +2085,7 @@
       </c>
       <c r="N80" s="17"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="81">
       <c r="B81" s="3"/>
       <c r="C81" s="6"/>
       <c r="F81" s="13" t="n">
@@ -2159,7 +2104,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="82">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
@@ -2187,7 +2132,7 @@
       <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="83">
       <c r="A83" s="0" t="s">
         <v>14</v>
       </c>
@@ -2228,7 +2173,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="84">
       <c r="B84" s="3"/>
       <c r="F84" s="13" t="n">
         <v>4000</v>
@@ -2246,7 +2191,7 @@
         <v>9.02</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="85">
       <c r="B85" s="3"/>
       <c r="F85" s="13" t="n">
         <v>7000</v>
@@ -2264,7 +2209,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="86">
       <c r="B86" s="3"/>
       <c r="J86" s="15" t="n">
         <v>99.07</v>
@@ -2279,7 +2224,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="87">
       <c r="B87" s="3"/>
       <c r="F87" s="13"/>
       <c r="I87" s="13"/>
@@ -2288,7 +2233,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="88">
       <c r="A88" s="0" t="s">
         <v>14</v>
       </c>
@@ -2329,7 +2274,7 @@
         <v>9.58</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="89">
       <c r="B89" s="3"/>
       <c r="F89" s="13" t="n">
         <v>5000</v>
@@ -2347,7 +2292,7 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="90">
       <c r="B90" s="3"/>
       <c r="F90" s="13" t="n">
         <v>9500</v>
@@ -2365,14 +2310,14 @@
         <v>8.85</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="91">
       <c r="B91" s="3"/>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="92">
       <c r="A92" s="0" t="s">
         <v>14</v>
       </c>
@@ -2398,7 +2343,7 @@
         <v>32</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J92" s="14" t="n">
         <v>93.66</v>
@@ -2413,13 +2358,8 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>19</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="93">
+      <c r="B93" s="3"/>
       <c r="F93" s="13" t="n">
         <v>5000</v>
       </c>
@@ -2436,7 +2376,7 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="94">
       <c r="B94" s="3"/>
       <c r="F94" s="13" t="n">
         <v>7500</v>
@@ -2454,7 +2394,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="95">
       <c r="B95" s="3"/>
       <c r="F95" s="13" t="n">
         <v>9500</v>
@@ -2472,7 +2412,7 @@
         <v>10.31</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="96">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="C96" s="7"/>
@@ -2500,7 +2440,7 @@
       <c r="Y96" s="7"/>
       <c r="Z96" s="7"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="97">
       <c r="A97" s="0" t="s">
         <v>14</v>
       </c>
@@ -2541,7 +2481,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="98">
       <c r="F98" s="13" t="n">
         <v>5000</v>
       </c>
@@ -2558,7 +2498,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="99">
       <c r="F99" s="13" t="n">
         <v>7000</v>
       </c>
@@ -2575,7 +2515,7 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="100">
       <c r="F100" s="13" t="n">
         <v>7500</v>
       </c>
@@ -2592,7 +2532,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="101">
       <c r="F101" s="13" t="n">
         <v>8500</v>
       </c>
@@ -2609,7 +2549,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="102">
       <c r="B102" s="3"/>
       <c r="F102" s="13" t="n">
         <v>10500</v>
@@ -2628,10 +2568,10 @@
       </c>
       <c r="N102" s="18"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="103">
       <c r="B103" s="3"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="104">
       <c r="A104" s="0" t="s">
         <v>14</v>
       </c>
@@ -2672,7 +2612,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="105">
       <c r="F105" s="13" t="n">
         <v>7000</v>
       </c>
@@ -2689,7 +2629,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="106">
       <c r="F106" s="13" t="n">
         <v>8500</v>
       </c>
@@ -2706,7 +2646,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="107">
       <c r="F107" s="13" t="n">
         <v>9000</v>
       </c>
@@ -2723,7 +2663,7 @@
         <v>7.79</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="108">
       <c r="F108" s="13" t="n">
         <v>10000</v>
       </c>
@@ -2740,7 +2680,7 @@
         <v>4.81</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="110">
       <c r="A110" s="0" t="s">
         <v>14</v>
       </c>
@@ -2781,7 +2721,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="111">
       <c r="F111" s="0" t="n">
         <v>3500</v>
       </c>
@@ -2798,7 +2738,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="112">
       <c r="F112" s="13" t="n">
         <v>7500</v>
       </c>
@@ -2815,7 +2755,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="113">
       <c r="F113" s="0" t="n">
         <v>9500</v>
       </c>
@@ -2832,7 +2772,7 @@
         <v>6.65</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="114">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -2860,12 +2800,12 @@
       <c r="Y114" s="7"/>
       <c r="Z114" s="7"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="115">
       <c r="A115" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>15</v>
@@ -2901,7 +2841,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="116">
       <c r="F116" s="0" t="n">
         <v>6500</v>
       </c>
@@ -2918,7 +2858,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="117">
       <c r="F117" s="0" t="n">
         <v>7000</v>
       </c>
@@ -2935,7 +2875,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="118">
       <c r="F118" s="0" t="n">
         <v>10000</v>
       </c>
@@ -2952,12 +2892,12 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="120">
       <c r="A120" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>17</v>
@@ -2969,7 +2909,7 @@
         <v>817</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>800</v>
+        <v>5500</v>
       </c>
       <c r="G120" s="0" t="n">
         <v>0.0001</v>
@@ -2978,112 +2918,112 @@
         <v>32</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J120" s="0" t="n">
-        <v>80.37</v>
+        <v>96.92</v>
       </c>
       <c r="K120" s="0" t="n">
-        <v>76.62</v>
+        <v>93.72</v>
       </c>
       <c r="L120" s="0" t="n">
-        <v>82.11</v>
+        <v>90.58</v>
       </c>
       <c r="M120" s="0" t="n">
-        <v>28.85</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="121">
       <c r="F121" s="0" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J121" s="0" t="n">
-        <v>97.26</v>
+        <v>98.69</v>
       </c>
       <c r="K121" s="0" t="n">
-        <v>80.9</v>
+        <v>94.94</v>
       </c>
       <c r="L121" s="0" t="n">
-        <v>81.13</v>
+        <v>92.75</v>
       </c>
       <c r="M121" s="0" t="n">
-        <v>19.32</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="122">
       <c r="F122" s="0" t="n">
-        <v>2900</v>
+        <v>9500</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>99.31</v>
+        <v>98.85</v>
       </c>
       <c r="K122" s="0" t="n">
-        <v>79.68</v>
+        <v>94.68</v>
       </c>
       <c r="L122" s="0" t="n">
-        <v>85.78</v>
+        <v>93.14</v>
       </c>
       <c r="M122" s="0" t="n">
-        <v>26.41</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="123">
       <c r="F123" s="0" t="n">
-        <v>3500</v>
+        <v>11500</v>
       </c>
       <c r="J123" s="0" t="n">
-        <v>99.47</v>
+        <v>99.15</v>
       </c>
       <c r="K123" s="0" t="n">
-        <v>81.51</v>
+        <v>94.99</v>
       </c>
       <c r="L123" s="0" t="n">
-        <v>81.86</v>
+        <v>92.26</v>
       </c>
       <c r="M123" s="0" t="n">
-        <v>18.83</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="124">
       <c r="F124" s="0" t="n">
-        <v>4000</v>
+        <v>12500</v>
       </c>
       <c r="J124" s="5" t="n">
-        <v>99.89</v>
+        <v>99.45</v>
       </c>
       <c r="K124" s="5" t="n">
-        <v>82.12</v>
+        <v>95.17</v>
       </c>
       <c r="L124" s="5" t="n">
-        <v>83.09</v>
+        <v>94.43</v>
       </c>
       <c r="M124" s="5" t="n">
-        <v>18.83</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="125">
       <c r="F125" s="0" t="n">
-        <v>4100</v>
+        <v>13500</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>99.63</v>
+        <v>99.72</v>
       </c>
       <c r="K125" s="0" t="n">
-        <v>82</v>
+        <v>94.98</v>
       </c>
       <c r="L125" s="0" t="n">
-        <v>85.54</v>
+        <v>93.91</v>
       </c>
       <c r="M125" s="0" t="n">
-        <v>21.52</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="127">
       <c r="A127" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>18</v>
@@ -3095,7 +3035,7 @@
         <v>1088</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="G127" s="0" t="n">
         <v>0.0001</v>
@@ -3104,90 +3044,90 @@
         <v>32</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J127" s="0" t="n">
-        <v>84.04</v>
+        <v>94.05</v>
       </c>
       <c r="K127" s="0" t="n">
-        <v>73.89</v>
+        <v>92.27</v>
       </c>
       <c r="L127" s="0" t="n">
-        <v>86.21</v>
+        <v>86.24</v>
       </c>
       <c r="M127" s="0" t="n">
-        <v>38.42</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="128">
       <c r="F128" s="0" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J128" s="0" t="n">
-        <v>98.83</v>
+        <v>97.21</v>
       </c>
       <c r="K128" s="0" t="n">
-        <v>81.52</v>
+        <v>94.23</v>
       </c>
       <c r="L128" s="0" t="n">
-        <v>81.8</v>
+        <v>92.15</v>
       </c>
       <c r="M128" s="0" t="n">
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="129">
       <c r="F129" s="0" t="n">
-        <v>2400</v>
+        <v>8500</v>
       </c>
       <c r="J129" s="0" t="n">
-        <v>98.95</v>
+        <v>98.96</v>
       </c>
       <c r="K129" s="0" t="n">
-        <v>81.61</v>
+        <v>94.66</v>
       </c>
       <c r="L129" s="0" t="n">
-        <v>86.21</v>
+        <v>93.8</v>
       </c>
       <c r="M129" s="0" t="n">
-        <v>22.98</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="130">
       <c r="F130" s="0" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="J130" s="0" t="n">
-        <v>99.87</v>
+        <v>99.59</v>
       </c>
       <c r="K130" s="0" t="n">
-        <v>82.62</v>
+        <v>94.7</v>
       </c>
       <c r="L130" s="0" t="n">
-        <v>80.88</v>
+        <v>93.88</v>
       </c>
       <c r="M130" s="0" t="n">
-        <v>15.63</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="131">
       <c r="F131" s="0" t="n">
-        <v>3100</v>
+        <v>12500</v>
       </c>
       <c r="J131" s="5" t="n">
-        <v>99.93</v>
+        <v>99.73</v>
       </c>
       <c r="K131" s="5" t="n">
-        <v>83.08</v>
+        <v>95.2</v>
       </c>
       <c r="L131" s="5" t="n">
-        <v>85.48</v>
+        <v>94.33</v>
       </c>
       <c r="M131" s="5" t="n">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="132">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -3218,7 +3158,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3233,19 +3173,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.6862745098039"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3260,19 +3199,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.6862745098039"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
